--- a/data/trans_dic/P16A01-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04341617495767324</v>
+        <v>0.04452355832787141</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0818894216583244</v>
+        <v>0.08196227636972153</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05948964072124576</v>
+        <v>0.06086699351313163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03701603918036919</v>
+        <v>0.0364208652208453</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05832479296851577</v>
+        <v>0.0586346226516565</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05799384231669543</v>
+        <v>0.05658959100028287</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04397314322397928</v>
+        <v>0.04488176260340229</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05342346640600497</v>
+        <v>0.05323298203693137</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05445821551235763</v>
+        <v>0.05445692515248599</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08049354056988486</v>
+        <v>0.0784678275800935</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0577413082412165</v>
+        <v>0.05807861240001098</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04918310318412809</v>
+        <v>0.04964181908079281</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09227173036509091</v>
+        <v>0.09031513083833131</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1495586018158742</v>
+        <v>0.153615361979252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1154226591080968</v>
+        <v>0.1177860488126377</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08386032393193185</v>
+        <v>0.08341502128054722</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1196923304853826</v>
+        <v>0.1222753282073845</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.125854141200614</v>
+        <v>0.126315802752637</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09881329662706653</v>
+        <v>0.1006822697611274</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09346007937799879</v>
+        <v>0.0930538620577309</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0923198286369226</v>
+        <v>0.09178301692947816</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1274425014118437</v>
+        <v>0.127458636229577</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09856576566813223</v>
+        <v>0.09752587572708318</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07876942358555411</v>
+        <v>0.07953073748099526</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.07542895341638819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08441561993995095</v>
+        <v>0.08441561993995093</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.07632498285746273</v>
@@ -833,7 +833,7 @@
         <v>0.08249817333513895</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.07486111757592456</v>
+        <v>0.07486111757592455</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04438590252865981</v>
+        <v>0.04378413536465697</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04754497067634501</v>
+        <v>0.04682844543203273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04889627426126723</v>
+        <v>0.04995693336696985</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06175123778872949</v>
+        <v>0.06080759966179941</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05174909336983324</v>
+        <v>0.05085886983370472</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06220139100639132</v>
+        <v>0.06377803375303318</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06261973485197364</v>
+        <v>0.06251374865436385</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04719331922089556</v>
+        <v>0.04712708608134785</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05493249410298757</v>
+        <v>0.05372509515732582</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06173094293948762</v>
+        <v>0.06204106822234933</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06438326621211519</v>
+        <v>0.06429888424610064</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05929630141543786</v>
+        <v>0.06022968303970017</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1023994750257552</v>
+        <v>0.09770595238835338</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1069010380968203</v>
+        <v>0.1028184585707184</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1032498416568352</v>
+        <v>0.1090409985278552</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1125671706282106</v>
+        <v>0.1135040321604129</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1066470328619888</v>
+        <v>0.1067409564798797</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1303314046836045</v>
+        <v>0.1304604863300257</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1244701936530081</v>
+        <v>0.1212998892246902</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08671212146420397</v>
+        <v>0.08780804545568414</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09502481960478099</v>
+        <v>0.09222786785307538</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.10394690387136</v>
+        <v>0.1049231432211206</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1069037339800681</v>
+        <v>0.1074740964425498</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09368677879048333</v>
+        <v>0.09504217535887155</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.08552581109046667</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09106468850633412</v>
+        <v>0.0910646885063341</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1036287543637133</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05619116141292134</v>
+        <v>0.05573046449629109</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06864802435995024</v>
+        <v>0.06648986268919094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06357735093632558</v>
+        <v>0.0639225940459744</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06466657060713879</v>
+        <v>0.06752933398300508</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06276623659549702</v>
+        <v>0.06010934467935228</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04722265664376758</v>
+        <v>0.04787556584873262</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05601138787129292</v>
+        <v>0.05559930151056888</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07744147972033004</v>
+        <v>0.0768125305305942</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06352160768676192</v>
+        <v>0.06226234532901195</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06581046787818626</v>
+        <v>0.06795510531834123</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06660479404932046</v>
+        <v>0.06622369476585721</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07720441937427801</v>
+        <v>0.07644458903082489</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1057463943078937</v>
+        <v>0.1069677747985952</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1144968924011023</v>
+        <v>0.1146492835453992</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1120743465685744</v>
+        <v>0.1114805334264251</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1221991485651969</v>
+        <v>0.1230232645234456</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1629843367576689</v>
+        <v>0.1643914105148548</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1207845974123146</v>
+        <v>0.1190808407560294</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1501227770607799</v>
+        <v>0.1550856842311602</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1559868193516929</v>
+        <v>0.1579042144079872</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1083555773320523</v>
+        <v>0.1069873137876356</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1061658195618784</v>
+        <v>0.1068305916991503</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1119180973595511</v>
+        <v>0.1109163084964321</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.123195533793019</v>
+        <v>0.1240699846336842</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.07715159080886962</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06218102125955039</v>
+        <v>0.06218102125955038</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.06974650775122478</v>
@@ -1105,7 +1105,7 @@
         <v>0.07807989589973813</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06964582517024186</v>
+        <v>0.06964582517024184</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05623926829579608</v>
+        <v>0.05670727790477563</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08099036052826511</v>
+        <v>0.0817078009105227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06374620310950915</v>
+        <v>0.0640970321143317</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05958088629468666</v>
+        <v>0.05902808697807884</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0510117358388505</v>
+        <v>0.05271663996763135</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08145764351305827</v>
+        <v>0.07961423456378959</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06052755029341152</v>
+        <v>0.06048530308369097</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0500558207358052</v>
+        <v>0.04899680049578926</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05876447182422863</v>
+        <v>0.05892156672879692</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08689908164884587</v>
+        <v>0.08679754030444299</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06746233925972843</v>
+        <v>0.06703465416849247</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05948492368112544</v>
+        <v>0.05892750593214641</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08281280687258553</v>
+        <v>0.08399894519099246</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1188523578524076</v>
+        <v>0.1182537134498539</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09442088193714585</v>
+        <v>0.09503221313064765</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09643592470164636</v>
+        <v>0.09665313874496724</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09022495151929168</v>
+        <v>0.09005136613585701</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1274448399983197</v>
+        <v>0.1265593232741066</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09809002700282751</v>
+        <v>0.09800620830438531</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07826432648459966</v>
+        <v>0.07722969410085692</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08154015162441706</v>
+        <v>0.08272844851671776</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1159811736846796</v>
+        <v>0.115753225594154</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09099320388975683</v>
+        <v>0.09082015803564926</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08337359013445533</v>
+        <v>0.08377453424100881</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.06872315251726993</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06155983640216017</v>
+        <v>0.06155983640216015</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05624340642542845</v>
@@ -1229,7 +1229,7 @@
         <v>0.08169942755994185</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.09799381519717199</v>
+        <v>0.09799381519717196</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.06220469429841524</v>
@@ -1241,7 +1241,7 @@
         <v>0.0757724617642736</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.08320808373677582</v>
+        <v>0.08320808373677584</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04587510109011222</v>
+        <v>0.04947485269932102</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06733991344016615</v>
+        <v>0.06953625502067164</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05096426722433241</v>
+        <v>0.04985025431111617</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04237435021040308</v>
+        <v>0.04191001896787745</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03791494810556901</v>
+        <v>0.03866073736979848</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05454360341657982</v>
+        <v>0.05516719620047988</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0627417781236983</v>
+        <v>0.06306163624193253</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08178866976231332</v>
+        <v>0.08117733646461051</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04714051207972278</v>
+        <v>0.04746227222490127</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06530034575807547</v>
+        <v>0.06560546448170972</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06168609696942968</v>
+        <v>0.0625080960296323</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0715428556706094</v>
+        <v>0.07045027799140957</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1004278847143482</v>
+        <v>0.1045720790207344</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1190422679115248</v>
+        <v>0.1170112133554593</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09506003450959656</v>
+        <v>0.09276117166359665</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08836376031630896</v>
+        <v>0.09013657622627842</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07932280280178229</v>
+        <v>0.08088838980523716</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0914898982960833</v>
+        <v>0.09521637450902634</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.103424442657069</v>
+        <v>0.1015614108990863</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1177634534971332</v>
+        <v>0.1211759166592268</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0779795808039422</v>
+        <v>0.07790529598317154</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0952022288397151</v>
+        <v>0.09432725906976437</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09008033632474216</v>
+        <v>0.09284609159619019</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09890517773530434</v>
+        <v>0.09925244108067041</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.09095007160356311</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06673693609573639</v>
+        <v>0.06673693609573636</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.05191409258885515</v>
@@ -1377,7 +1377,7 @@
         <v>0.08557067822458279</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.05862130085914198</v>
+        <v>0.05862130085914196</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03511180756677507</v>
+        <v>0.03503181151132889</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06873087045665831</v>
+        <v>0.06834618315080776</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04028584358247715</v>
+        <v>0.03873193233769166</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.009057610535584027</v>
+        <v>0.007516123972740055</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03881185689807787</v>
+        <v>0.03879545651395014</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06115787605536478</v>
+        <v>0.0626794694811873</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07333214093354586</v>
+        <v>0.07429748656107132</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05213477422879732</v>
+        <v>0.05064725928548375</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04120113165133259</v>
+        <v>0.04240320797236474</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06776805827571313</v>
+        <v>0.06687684323499529</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.07121461247012126</v>
+        <v>0.07100607084031767</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04593862959656693</v>
+        <v>0.04539326178720623</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08656549224022463</v>
+        <v>0.0877714455074238</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1422339378827577</v>
+        <v>0.1450782804567081</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09861499686440821</v>
+        <v>0.09913618632501561</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0781910144403388</v>
+        <v>0.07653584676457023</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06402108189191638</v>
+        <v>0.06420853031767196</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09298711883336172</v>
+        <v>0.09312951203121864</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.111553633904295</v>
+        <v>0.1112797945303847</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08664335111510439</v>
+        <v>0.08571349841147571</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06396580575045797</v>
+        <v>0.06526837287121558</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.09874223116492886</v>
+        <v>0.09801838729075092</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1035748749614366</v>
+        <v>0.1028154882363077</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07769201399251814</v>
+        <v>0.07596419882348474</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06082142497933523</v>
+        <v>0.06037573782742693</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0835042568804147</v>
+        <v>0.08380433583655555</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06785587856299764</v>
+        <v>0.06767626100029035</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06035411429446393</v>
+        <v>0.06082954584445915</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05581670441849375</v>
+        <v>0.0553071868030492</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07437156847967788</v>
+        <v>0.07407443323925289</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07480805983963269</v>
+        <v>0.07424532443670184</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06844363800445932</v>
+        <v>0.06795744160701678</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06083493654441785</v>
+        <v>0.06079199815053666</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.08189211739568626</v>
+        <v>0.08190985392481968</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07373334720658842</v>
+        <v>0.074009966886283</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06672874552170835</v>
+        <v>0.06683070453429887</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07848789907061629</v>
+        <v>0.07840209004989181</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1051102787892651</v>
+        <v>0.1050582409914434</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08693136983883339</v>
+        <v>0.08677950398451506</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07951226552043925</v>
+        <v>0.08018554839879506</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07294173587807885</v>
+        <v>0.07258248564032406</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09462598218343937</v>
+        <v>0.09286955588400471</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09432362838086995</v>
+        <v>0.09398608065314876</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08372573487905495</v>
+        <v>0.0832325786914048</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07342054573817719</v>
+        <v>0.07277159841448783</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.09635662317901837</v>
+        <v>0.09591136618756575</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08695517764894507</v>
+        <v>0.08767164831564599</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07927354169088757</v>
+        <v>0.07943808901605708</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20570</v>
+        <v>21094</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35803</v>
+        <v>35835</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25527</v>
+        <v>26118</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20382</v>
+        <v>20054</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17887</v>
+        <v>17982</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18236</v>
+        <v>17795</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15261</v>
+        <v>15576</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26093</v>
+        <v>26000</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>42502</v>
+        <v>42501</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>60504</v>
+        <v>58982</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>44816</v>
+        <v>45078</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>51103</v>
+        <v>51579</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>43716</v>
+        <v>42789</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>65389</v>
+        <v>67162</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>49527</v>
+        <v>50541</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>46175</v>
+        <v>45930</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>36707</v>
+        <v>37499</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>39575</v>
+        <v>39721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>34294</v>
+        <v>34942</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>45647</v>
+        <v>45449</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>72052</v>
+        <v>71633</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>95794</v>
+        <v>95806</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>76502</v>
+        <v>75694</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>81844</v>
+        <v>82635</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16287</v>
+        <v>16066</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19827</v>
+        <v>19528</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18445</v>
+        <v>18845</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>29839</v>
+        <v>29383</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19244</v>
+        <v>18913</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20857</v>
+        <v>21386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>23312</v>
+        <v>23272</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>19933</v>
+        <v>19905</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>40584</v>
+        <v>39692</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>46442</v>
+        <v>46676</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>48255</v>
+        <v>48192</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>53698</v>
+        <v>54543</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37574</v>
+        <v>35852</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>44580</v>
+        <v>42877</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38949</v>
+        <v>41133</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>54394</v>
+        <v>54847</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39658</v>
+        <v>39693</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>43702</v>
+        <v>43745</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>46337</v>
+        <v>45157</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>36625</v>
+        <v>37088</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>70204</v>
+        <v>68138</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>78203</v>
+        <v>78937</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>80124</v>
+        <v>80552</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>84842</v>
+        <v>86069</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30477</v>
+        <v>30228</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>42997</v>
+        <v>41645</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>33182</v>
+        <v>33362</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>30498</v>
+        <v>31848</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10531</v>
+        <v>10085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12181</v>
+        <v>12349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9305</v>
+        <v>9236</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14520</v>
+        <v>14402</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>45111</v>
+        <v>44217</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>58195</v>
+        <v>60091</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45826</v>
+        <v>45564</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>50886</v>
+        <v>50385</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>57356</v>
+        <v>58018</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>71714</v>
+        <v>71809</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>58493</v>
+        <v>58183</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>57631</v>
+        <v>58019</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27346</v>
+        <v>27582</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>31155</v>
+        <v>30715</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24939</v>
+        <v>25763</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>29247</v>
+        <v>29607</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>76951</v>
+        <v>75979</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>93880</v>
+        <v>94468</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>77004</v>
+        <v>76314</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>81199</v>
+        <v>81776</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>69643</v>
+        <v>70223</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>93731</v>
+        <v>94562</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>73285</v>
+        <v>73688</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>67436</v>
+        <v>66811</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>36437</v>
+        <v>37655</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>62450</v>
+        <v>61037</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>49988</v>
+        <v>49953</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>43062</v>
+        <v>42151</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>114745</v>
+        <v>115051</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>167191</v>
+        <v>166996</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>133273</v>
+        <v>132428</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>118502</v>
+        <v>117391</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>102550</v>
+        <v>104019</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>137550</v>
+        <v>136857</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>108550</v>
+        <v>109253</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>109150</v>
+        <v>109396</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>64446</v>
+        <v>64322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>97706</v>
+        <v>97028</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>81010</v>
+        <v>80941</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>67330</v>
+        <v>66439</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>159217</v>
+        <v>161537</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>223145</v>
+        <v>222706</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>179758</v>
+        <v>179416</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>166091</v>
+        <v>166890</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16035</v>
+        <v>17293</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>34383</v>
+        <v>35505</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>31634</v>
+        <v>30942</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>24025</v>
+        <v>23762</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>21564</v>
+        <v>21988</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>41303</v>
+        <v>41775</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>46319</v>
+        <v>46555</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>67895</v>
+        <v>67387</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>43289</v>
+        <v>43584</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>82790</v>
+        <v>83177</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>83828</v>
+        <v>84945</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>99953</v>
+        <v>98426</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35103</v>
+        <v>36552</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>60783</v>
+        <v>59745</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>59004</v>
+        <v>57577</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>50100</v>
+        <v>51105</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>45115</v>
+        <v>46005</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>69280</v>
+        <v>72102</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>76352</v>
+        <v>74977</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>97759</v>
+        <v>100591</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>71608</v>
+        <v>71540</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>120701</v>
+        <v>119592</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>122415</v>
+        <v>126173</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>138181</v>
+        <v>138666</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10470</v>
+        <v>10447</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>18271</v>
+        <v>18169</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11568</v>
+        <v>11122</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2149</v>
+        <v>1783</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>48467</v>
+        <v>48446</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>67595</v>
+        <v>69277</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>79347</v>
+        <v>80392</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>43949</v>
+        <v>42695</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>63737</v>
+        <v>65596</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>92917</v>
+        <v>91695</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>97505</v>
+        <v>97219</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>49624</v>
+        <v>49035</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>25814</v>
+        <v>26174</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>37812</v>
+        <v>38568</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>28317</v>
+        <v>28466</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>18549</v>
+        <v>18156</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>79947</v>
+        <v>80181</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>102775</v>
+        <v>102932</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>120704</v>
+        <v>120408</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>73040</v>
+        <v>72256</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>98953</v>
+        <v>100968</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>135385</v>
+        <v>134393</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>141812</v>
+        <v>140772</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>83925</v>
+        <v>82058</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>198836</v>
+        <v>197379</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>285110</v>
+        <v>286135</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>229741</v>
+        <v>229133</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>207708</v>
+        <v>209344</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>188556</v>
+        <v>186835</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>263042</v>
+        <v>261991</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>264192</v>
+        <v>262204</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>248566</v>
+        <v>246800</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>404388</v>
+        <v>404102</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>569247</v>
+        <v>569370</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>510037</v>
+        <v>511950</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>471984</v>
+        <v>472705</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>256590</v>
+        <v>256310</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>358880</v>
+        <v>358702</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>294325</v>
+        <v>293811</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>273641</v>
+        <v>275958</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>246406</v>
+        <v>245193</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>334679</v>
+        <v>328467</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>333113</v>
+        <v>331921</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>304066</v>
+        <v>302275</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>488048</v>
+        <v>483734</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>669793</v>
+        <v>666697</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>601497</v>
+        <v>606453</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>560716</v>
+        <v>561880</v>
       </c>
     </row>
     <row r="32">
